--- a/padronn-web/src/main/webapp/WEB-INF/formato/Reporte-Resumen_EESS_edad.xlsx
+++ b/padronn-web/src/main/webapp/WEB-INF/formato/Reporte-Resumen_EESS_edad.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\disco D\padron nominal\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="345" windowWidth="20730" windowHeight="9855"/>
   </bookViews>
@@ -16,14 +11,14 @@
     <sheet name="Dominios" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RESUMEN_EESS_EDAD!$A$4:$L$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RESUMEN_EESS_EDAD!$A$4:$K$4</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="129">
   <si>
     <t>Lengua de la madre</t>
   </si>
@@ -425,12 +420,6 @@
   </si>
   <si>
     <t>TIPO DE ESTABLECIMIENTO DE SALUD (ATENCIÓN, NACIMIENTO O ADSCRIPCIÓN)</t>
-  </si>
-  <si>
-    <t>CÓDIGO RENAES</t>
-  </si>
-  <si>
-    <t>CÓDIGO RENAES DEL ESTABLECIMIENTO DE SALUD</t>
   </si>
 </sst>
 </file>
@@ -693,7 +682,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -778,7 +774,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -813,7 +809,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1023,64 +1019,59 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="14.140625" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="2"/>
+    <col min="2" max="3" width="25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="14.140625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>107</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="J1" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -1090,11 +1081,10 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="13"/>
-    </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J2" s="10"/>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -1104,80 +1094,80 @@
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="14"/>
-    </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J3" s="11"/>
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:11" s="5" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>108</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J4" s="6" t="s">
         <v>123</v>
       </c>
+      <c r="J4" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="K4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L4" s="7" t="s">
         <v>125</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:L4"/>
-  <mergeCells count="12">
+  <autoFilter ref="A4:K4"/>
+  <mergeCells count="11">
+    <mergeCell ref="J1:J3"/>
     <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
     <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
+    <mergeCell ref="I1:I3"/>
     <mergeCell ref="H1:H3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
   </mergeCells>
-  <conditionalFormatting sqref="M1:XFD4 A1:J1 A5:XFD1048576 A4:J4">
-    <cfRule type="expression" dxfId="3" priority="15">
+  <conditionalFormatting sqref="A1:I1 L1:XFD4 A5:XFD1048576">
+    <cfRule type="expression" dxfId="4" priority="15">
+      <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:I4">
+    <cfRule type="expression" dxfId="3" priority="8">
+      <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:K4">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4:L4">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>_xludf.MOD(_xludf.ROW(),2)=0</formula>
     </cfRule>
